--- a/data/PLP.xlsx
+++ b/data/PLP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>PLP</t>
@@ -26934,7 +26934,7 @@
     <col min="37" max="37" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="16.7890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="17.453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="16.7890625" customWidth="true" bestFit="true"/>
@@ -27137,7 +27137,7 @@
         <v>1.7053894951E10</v>
       </c>
       <c r="I12" s="25" t="n">
-        <v>1.5812874749E10</v>
+        <v>1.6016322858E10</v>
       </c>
       <c r="K12" s="25" t="n">
         <v>7.341285126E9</v>
@@ -27227,7 +27227,7 @@
         <v>4.029546626E9</v>
       </c>
       <c r="AN12" s="25" t="n">
-        <v>1.5812874749E10</v>
+        <v>1.6016322858E10</v>
       </c>
       <c r="AO12" s="25" t="n">
         <v>7.338558906E9</v>
@@ -27265,7 +27265,7 @@
         <v>2.509479399E9</v>
       </c>
       <c r="I13" s="25" t="n">
-        <v>2.627971885E9</v>
+        <v>2.831670885E9</v>
       </c>
       <c r="K13" s="25" t="n">
         <v>5.201713121E9</v>
@@ -27355,7 +27355,7 @@
         <v>2.257276767E9</v>
       </c>
       <c r="AN13" s="25" t="n">
-        <v>2.627971885E9</v>
+        <v>2.831670885E9</v>
       </c>
       <c r="AO13" s="25" t="n">
         <v>6.29508795E9</v>
@@ -27393,7 +27393,7 @@
         <v>1.4544415552E10</v>
       </c>
       <c r="I14" s="25" t="n">
-        <v>1.3184902864E10</v>
+        <v>1.3184651973E10</v>
       </c>
       <c r="K14" s="25" t="n">
         <v>2.139572005E9</v>
@@ -27483,7 +27483,7 @@
         <v>1.772269859E9</v>
       </c>
       <c r="AN14" s="25" t="n">
-        <v>1.3184902864E10</v>
+        <v>1.3184651973E10</v>
       </c>
       <c r="AO14" s="25" t="n">
         <v>1.043470956E9</v>
@@ -28673,7 +28673,7 @@
         <v>2.53086202232E11</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>3.76413592156E11</v>
+        <v>2.40459108297E11</v>
       </c>
       <c r="K24" s="25" t="n">
         <v>9.279163058E9</v>
@@ -28763,7 +28763,7 @@
         <v>4.74494961984E11</v>
       </c>
       <c r="AN24" s="25" t="n">
-        <v>3.76413592156E11</v>
+        <v>2.40459108297E11</v>
       </c>
       <c r="AO24" s="25" t="n">
         <v>1.83720112943E11</v>
@@ -29185,7 +29185,7 @@
         <v>2.53086202232E11</v>
       </c>
       <c r="I28" s="25" t="n">
-        <v>3.76413592156E11</v>
+        <v>2.40459108297E11</v>
       </c>
       <c r="K28" s="25" t="n">
         <v>9.279163058E9</v>
@@ -29275,7 +29275,7 @@
         <v>4.74494961984E11</v>
       </c>
       <c r="AN28" s="25" t="n">
-        <v>3.76413592156E11</v>
+        <v>2.40459108297E11</v>
       </c>
       <c r="AO28" s="25" t="n">
         <v>1.83720112943E11</v>
@@ -29313,7 +29313,7 @@
         <v>2.88979795932E11</v>
       </c>
       <c r="I29" s="25" t="n">
-        <v>3.58684759649E11</v>
+        <v>3.66217262792E11</v>
       </c>
       <c r="K29" s="25" t="n">
         <v>8.320214403E10</v>
@@ -29403,7 +29403,7 @@
         <v>2.71924682044E11</v>
       </c>
       <c r="AN29" s="25" t="n">
-        <v>3.58684759649E11</v>
+        <v>3.66217262792E11</v>
       </c>
       <c r="AO29" s="25" t="n">
         <v>3.42733936552E11</v>
@@ -29569,7 +29569,7 @@
         <v>2.45764677124E11</v>
       </c>
       <c r="I31" s="25" t="n">
-        <v>3.2438198513E10</v>
+        <v>1.64832561652E11</v>
       </c>
       <c r="K31" s="25" t="n">
         <v>4.6933522893E10</v>
@@ -29659,7 +29659,7 @@
         <v>1.71106236666E11</v>
       </c>
       <c r="AN31" s="25" t="n">
-        <v>3.2438198513E10</v>
+        <v>1.64832561652E11</v>
       </c>
       <c r="AO31" s="25" t="n">
         <v>1.25185357735E11</v>
@@ -29697,7 +29697,7 @@
         <v>7.81672847E8</v>
       </c>
       <c r="I32" s="25" t="n">
-        <v>4.878482929E9</v>
+        <v>3.886203562E9</v>
       </c>
       <c r="K32" s="25" t="n">
         <v>0.0</v>
@@ -29787,7 +29787,7 @@
         <v>4.562419886E9</v>
       </c>
       <c r="AN32" s="25" t="n">
-        <v>4.878482929E9</v>
+        <v>3.886203562E9</v>
       </c>
       <c r="AO32" s="25" t="n">
         <v>4.596807412E9</v>
@@ -29953,7 +29953,7 @@
         <v>3.2341347555E10</v>
       </c>
       <c r="I34" s="25" t="n">
-        <v>2.38203911236E11</v>
+        <v>1.46819243949E11</v>
       </c>
       <c r="K34" s="25" t="n">
         <v>7.087974917E9</v>
@@ -30043,7 +30043,7 @@
         <v>5.3735487005E10</v>
       </c>
       <c r="AN34" s="25" t="n">
-        <v>2.38203911236E11</v>
+        <v>1.46819243949E11</v>
       </c>
       <c r="AO34" s="25" t="n">
         <v>1.46651934711E11</v>
@@ -30081,7 +30081,7 @@
         <v>8.161075568E9</v>
       </c>
       <c r="I35" s="25" t="n">
-        <v>8.3164166971E10</v>
+        <v>5.0679253629E10</v>
       </c>
       <c r="K35" s="25" t="n">
         <v>2.918064622E10</v>
@@ -30171,7 +30171,7 @@
         <v>4.2520538487E10</v>
       </c>
       <c r="AN35" s="25" t="n">
-        <v>8.3164166971E10</v>
+        <v>5.0679253629E10</v>
       </c>
       <c r="AO35" s="25" t="n">
         <v>6.6299836694E10</v>
@@ -31233,7 +31233,7 @@
         <v>2.75204434E9</v>
       </c>
       <c r="I44" s="25" t="n">
-        <v>0.0</v>
+        <v>1.3428913877E10</v>
       </c>
       <c r="K44" s="25" t="n">
         <v>0.0</v>
@@ -31323,7 +31323,7 @@
         <v>1.3428913877E10</v>
       </c>
       <c r="AN44" s="25" t="n">
-        <v>0.0</v>
+        <v>1.3428913877E10</v>
       </c>
       <c r="AO44" s="25" t="n">
         <v>0.0</v>
@@ -31361,7 +31361,7 @@
         <v>2.75204434E9</v>
       </c>
       <c r="I45" s="25" t="n">
-        <v>0.0</v>
+        <v>1.3428913877E10</v>
       </c>
       <c r="K45" s="25" t="n">
         <v>0.0</v>
@@ -31451,7 +31451,7 @@
         <v>1.3428913877E10</v>
       </c>
       <c r="AN45" s="25" t="n">
-        <v>0.0</v>
+        <v>1.3428913877E10</v>
       </c>
       <c r="AO45" s="25" t="n">
         <v>0.0</v>
@@ -31873,7 +31873,7 @@
         <v>2.92808762565E11</v>
       </c>
       <c r="I49" s="25" t="n">
-        <v>4.516338857E11</v>
+        <v>4.50603627514E11</v>
       </c>
       <c r="K49" s="25" t="n">
         <v>1.4206353251E11</v>
@@ -31963,7 +31963,7 @@
         <v>2.96073752746E11</v>
       </c>
       <c r="AN49" s="25" t="n">
-        <v>4.516338857E11</v>
+        <v>4.50603627514E11</v>
       </c>
       <c r="AO49" s="25" t="n">
         <v>5.6014116229E11</v>
@@ -32129,7 +32129,7 @@
         <v>1.2377024105E10</v>
       </c>
       <c r="I51" s="25" t="n">
-        <v>4.13915052583E11</v>
+        <v>2.43746603623E11</v>
       </c>
       <c r="K51" s="25" t="n">
         <v>2.4390673414E10</v>
@@ -32219,7 +32219,7 @@
         <v>4.160055636E9</v>
       </c>
       <c r="AN51" s="25" t="n">
-        <v>4.13915052583E11</v>
+        <v>2.43746603623E11</v>
       </c>
       <c r="AO51" s="25" t="n">
         <v>1.09537534776E11</v>
@@ -32257,7 +32257,7 @@
         <v>-5.154793818E9</v>
       </c>
       <c r="I52" s="25" t="n">
-        <v>-2.55089929448E11</v>
+        <v>-8.5951738674E10</v>
       </c>
       <c r="K52" s="25" t="n">
         <v>0.0</v>
@@ -32347,7 +32347,7 @@
         <v>-8.95065455E8</v>
       </c>
       <c r="AN52" s="25" t="n">
-        <v>-2.55089929448E11</v>
+        <v>-8.5951738674E10</v>
       </c>
       <c r="AO52" s="25" t="n">
         <v>0.0</v>
@@ -32385,7 +32385,7 @@
         <v>1.25130527669E11</v>
       </c>
       <c r="I53" s="25" t="n">
-        <v>1.0014938461E11</v>
+        <v>1.00493834247E11</v>
       </c>
       <c r="K53" s="25" t="n">
         <v>1.9264767826E10</v>
@@ -32475,7 +32475,7 @@
         <v>1.30527136716E11</v>
       </c>
       <c r="AN53" s="25" t="n">
-        <v>1.0014938461E11</v>
+        <v>1.00493834247E11</v>
       </c>
       <c r="AO53" s="25" t="n">
         <v>1.05357323901E11</v>
@@ -32641,7 +32641,7 @@
         <v>2.2094002603E10</v>
       </c>
       <c r="I55" s="25" t="n">
-        <v>5.751333049E9</v>
+        <v>6.095782686E9</v>
       </c>
       <c r="K55" s="25" t="n">
         <v>6.63846307E9</v>
@@ -32731,7 +32731,7 @@
         <v>6.291674502E9</v>
       </c>
       <c r="AN55" s="25" t="n">
-        <v>5.751333049E9</v>
+        <v>6.095782686E9</v>
       </c>
       <c r="AO55" s="25" t="n">
         <v>4.863489654E9</v>
@@ -32897,7 +32897,7 @@
         <v>0.0</v>
       </c>
       <c r="I57" s="25" t="n">
-        <v>0.0</v>
+        <v>1.97369772026E11</v>
       </c>
       <c r="K57" s="25" t="n">
         <v>0.0</v>
@@ -32987,7 +32987,7 @@
         <v>0.0</v>
       </c>
       <c r="AN57" s="25" t="n">
-        <v>0.0</v>
+        <v>1.97369772026E11</v>
       </c>
       <c r="AO57" s="25" t="n">
         <v>1.97369772026E11</v>
@@ -33153,7 +33153,7 @@
         <v>0.0</v>
       </c>
       <c r="I59" s="25" t="n">
-        <v>0.0</v>
+        <v>1.97369772026E11</v>
       </c>
       <c r="K59" s="25" t="n">
         <v>0.0</v>
@@ -33243,7 +33243,7 @@
         <v>0.0</v>
       </c>
       <c r="AN59" s="25" t="n">
-        <v>0.0</v>
+        <v>1.97369772026E11</v>
       </c>
       <c r="AO59" s="25" t="n">
         <v>0.0</v>
@@ -33409,7 +33409,7 @@
         <v>0.0</v>
       </c>
       <c r="I61" s="25" t="n">
-        <v>0.0</v>
+        <v>1.941600473E9</v>
       </c>
       <c r="K61" s="25" t="n">
         <v>0.0</v>
@@ -33499,7 +33499,7 @@
         <v>0.0</v>
       </c>
       <c r="AN61" s="25" t="n">
-        <v>0.0</v>
+        <v>1.941600473E9</v>
       </c>
       <c r="AO61" s="25" t="n">
         <v>4.449501086E9</v>
@@ -33665,7 +33665,7 @@
         <v>0.0</v>
       </c>
       <c r="I63" s="25" t="n">
-        <v>0.0</v>
+        <v>1.941600473E9</v>
       </c>
       <c r="K63" s="25" t="n">
         <v>0.0</v>
@@ -33755,7 +33755,7 @@
         <v>0.0</v>
       </c>
       <c r="AN63" s="25" t="n">
-        <v>0.0</v>
+        <v>1.941600473E9</v>
       </c>
       <c r="AO63" s="25" t="n">
         <v>2.507900613E9</v>
@@ -33921,7 +33921,7 @@
         <v>0.0</v>
       </c>
       <c r="I65" s="25" t="n">
-        <v>0.0</v>
+        <v>1.5036788688E10</v>
       </c>
       <c r="K65" s="25" t="n">
         <v>1.5036788688E10</v>
@@ -34011,7 +34011,7 @@
         <v>0.0</v>
       </c>
       <c r="AN65" s="25" t="n">
-        <v>0.0</v>
+        <v>1.5036788688E10</v>
       </c>
       <c r="AO65" s="25" t="n">
         <v>1.5036788688E10</v>
@@ -34049,7 +34049,7 @@
         <v>0.0</v>
       </c>
       <c r="I66" s="25" t="n">
-        <v>0.0</v>
+        <v>1.5036788688E10</v>
       </c>
       <c r="K66" s="25" t="n">
         <v>1.5036788688E10</v>
@@ -34139,7 +34139,7 @@
         <v>0.0</v>
       </c>
       <c r="AN66" s="25" t="n">
-        <v>0.0</v>
+        <v>1.5036788688E10</v>
       </c>
       <c r="AO66" s="25" t="n">
         <v>1.5036788688E10</v>
@@ -34433,7 +34433,7 @@
         <v>0.0</v>
       </c>
       <c r="I69" s="25" t="n">
-        <v>0.0</v>
+        <v>3.351950801E9</v>
       </c>
       <c r="K69" s="25" t="n">
         <v>6.2653286E8</v>
@@ -34523,7 +34523,7 @@
         <v>0.0</v>
       </c>
       <c r="AN69" s="25" t="n">
-        <v>0.0</v>
+        <v>3.351950801E9</v>
       </c>
       <c r="AO69" s="25" t="n">
         <v>3.44593073E9</v>
@@ -34561,7 +34561,7 @@
         <v>0.0</v>
       </c>
       <c r="I70" s="25" t="n">
-        <v>0.0</v>
+        <v>2.976031085E9</v>
       </c>
       <c r="K70" s="25" t="n">
         <v>3.44593073E8</v>
@@ -34651,7 +34651,7 @@
         <v>0.0</v>
       </c>
       <c r="AN70" s="25" t="n">
-        <v>0.0</v>
+        <v>2.976031085E9</v>
       </c>
       <c r="AO70" s="25" t="n">
         <v>3.44593073E9</v>
@@ -34689,7 +34689,7 @@
         <v>0.0</v>
       </c>
       <c r="I71" s="25" t="n">
-        <v>0.0</v>
+        <v>3.75919716E8</v>
       </c>
       <c r="K71" s="25" t="n">
         <v>2.81939787E8</v>
@@ -34779,7 +34779,7 @@
         <v>0.0</v>
       </c>
       <c r="AN71" s="25" t="n">
-        <v>0.0</v>
+        <v>3.75919716E8</v>
       </c>
       <c r="AO71" s="25" t="n">
         <v>0.0</v>
@@ -35841,7 +35841,7 @@
         <v>7.0421140158E11</v>
       </c>
       <c r="I80" s="25" t="n">
-        <v>8.0266701829E11</v>
+        <v>7.84112883498E11</v>
       </c>
       <c r="K80" s="25" t="n">
         <v>1.37307887549E11</v>
@@ -35931,7 +35931,7 @@
         <v>8.16151883859E11</v>
       </c>
       <c r="AN80" s="25" t="n">
-        <v>8.0266701829E11</v>
+        <v>7.84112883498E11</v>
       </c>
       <c r="AO80" s="25" t="n">
         <v>8.08007882197E11</v>
@@ -35969,7 +35969,7 @@
         <v>0.0</v>
       </c>
       <c r="I81" s="25" t="n">
-        <v>0.0</v>
+        <v>1.8554134792E10</v>
       </c>
       <c r="K81" s="25" t="n">
         <v>0.0</v>
@@ -36059,7 +36059,7 @@
         <v>0.0</v>
       </c>
       <c r="AN81" s="25" t="n">
-        <v>0.0</v>
+        <v>1.8554134792E10</v>
       </c>
       <c r="AO81" s="25" t="n">
         <v>0.0</v>
@@ -37121,7 +37121,7 @@
         <v>3.44890694E9</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>5.765944166E9</v>
+        <v>2.051635257E9</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>4.69178879E11</v>
@@ -37211,7 +37211,7 @@
         <v>9.183788621E9</v>
       </c>
       <c r="AN90" s="25" t="n">
-        <v>5.765944166E9</v>
+        <v>2.051635257E9</v>
       </c>
       <c r="AO90" s="25" t="n">
         <v>1.735515189E9</v>
@@ -37505,7 +37505,7 @@
         <v>0.0</v>
       </c>
       <c r="I93" s="25" t="n">
-        <v>24169.0</v>
+        <v>8243958.0</v>
       </c>
       <c r="K93" s="25" t="n">
         <v>0.0</v>
@@ -37595,7 +37595,7 @@
         <v>0.0</v>
       </c>
       <c r="AN93" s="25" t="n">
-        <v>24169.0</v>
+        <v>8243958.0</v>
       </c>
       <c r="AO93" s="25" t="n">
         <v>0.0</v>
@@ -37633,7 +37633,7 @@
         <v>2.525376855E9</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>1.998761981E9</v>
+        <v>0.0</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>2.89344326E11</v>
@@ -37723,7 +37723,7 @@
         <v>6.04668444E9</v>
       </c>
       <c r="AN94" s="25" t="n">
-        <v>1.998761981E9</v>
+        <v>0.0</v>
       </c>
       <c r="AO94" s="25" t="n">
         <v>0.0</v>
@@ -37761,7 +37761,7 @@
         <v>5.8998091E7</v>
       </c>
       <c r="I95" s="25" t="n">
-        <v>3.46607838E8</v>
+        <v>1.15179213E8</v>
       </c>
       <c r="K95" s="25" t="n">
         <v>0.0</v>
@@ -37851,7 +37851,7 @@
         <v>3.21814712E8</v>
       </c>
       <c r="AN95" s="25" t="n">
-        <v>3.46607838E8</v>
+        <v>1.15179213E8</v>
       </c>
       <c r="AO95" s="25" t="n">
         <v>1.7366783E7</v>
@@ -37889,7 +37889,7 @@
         <v>1.40064E8</v>
       </c>
       <c r="I96" s="25" t="n">
-        <v>2.484646085E9</v>
+        <v>1.157516327E9</v>
       </c>
       <c r="K96" s="25" t="n">
         <v>1.79834553E11</v>
@@ -37979,7 +37979,7 @@
         <v>1.309169845E9</v>
       </c>
       <c r="AN96" s="25" t="n">
-        <v>2.484646085E9</v>
+        <v>1.157516327E9</v>
       </c>
       <c r="AO96" s="25" t="n">
         <v>4.93201742E8</v>
@@ -38273,7 +38273,7 @@
         <v>2.81924617E8</v>
       </c>
       <c r="I99" s="25" t="n">
-        <v>9.35904093E8</v>
+        <v>7.70695759E8</v>
       </c>
       <c r="K99" s="25" t="n">
         <v>0.0</v>
@@ -38363,7 +38363,7 @@
         <v>8.83641825E8</v>
       </c>
       <c r="AN99" s="25" t="n">
-        <v>9.35904093E8</v>
+        <v>7.70695759E8</v>
       </c>
       <c r="AO99" s="25" t="n">
         <v>1.224946664E9</v>
@@ -38401,7 +38401,7 @@
         <v>2.023934853E9</v>
       </c>
       <c r="I100" s="25" t="n">
-        <v>1.858095977E9</v>
+        <v>4.15922253E9</v>
       </c>
       <c r="K100" s="25" t="n">
         <v>0.0</v>
@@ -38491,7 +38491,7 @@
         <v>4.02849599E8</v>
       </c>
       <c r="AN100" s="25" t="n">
-        <v>1.858095977E9</v>
+        <v>4.15922253E9</v>
       </c>
       <c r="AO100" s="25" t="n">
         <v>4.425145363E9</v>
@@ -38913,7 +38913,7 @@
         <v>2.023934853E9</v>
       </c>
       <c r="I104" s="25" t="n">
-        <v>1.858095977E9</v>
+        <v>4.15922253E9</v>
       </c>
       <c r="K104" s="25" t="n">
         <v>0.0</v>
@@ -39003,7 +39003,7 @@
         <v>4.02849599E8</v>
       </c>
       <c r="AN104" s="25" t="n">
-        <v>1.858095977E9</v>
+        <v>4.15922253E9</v>
       </c>
       <c r="AO104" s="25" t="n">
         <v>4.425145363E9</v>
@@ -39041,7 +39041,7 @@
         <v>5.582033805E9</v>
       </c>
       <c r="I105" s="25" t="n">
-        <v>1.60794331265E11</v>
+        <v>6.011992398E9</v>
       </c>
       <c r="K105" s="25" t="n">
         <v>4.12950839E9</v>
@@ -39131,7 +39131,7 @@
         <v>1.06066590126E11</v>
       </c>
       <c r="AN105" s="25" t="n">
-        <v>1.60794331265E11</v>
+        <v>6.011992398E9</v>
       </c>
       <c r="AO105" s="25" t="n">
         <v>6.882223441E9</v>
@@ -39297,7 +39297,7 @@
         <v>0.0</v>
       </c>
       <c r="I107" s="25" t="n">
-        <v>0.0</v>
+        <v>1.803193211E9</v>
       </c>
       <c r="K107" s="25" t="n">
         <v>0.0</v>
@@ -39387,7 +39387,7 @@
         <v>0.0</v>
       </c>
       <c r="AN107" s="25" t="n">
-        <v>0.0</v>
+        <v>1.803193211E9</v>
       </c>
       <c r="AO107" s="25" t="n">
         <v>3.295295302E9</v>
@@ -39425,7 +39425,7 @@
         <v>0.0</v>
       </c>
       <c r="I108" s="25" t="n">
-        <v>0.0</v>
+        <v>6.2445801E8</v>
       </c>
       <c r="K108" s="25" t="n">
         <v>1.1950839E8</v>
@@ -39515,7 +39515,7 @@
         <v>0.0</v>
       </c>
       <c r="AN108" s="25" t="n">
-        <v>0.0</v>
+        <v>6.2445801E8</v>
       </c>
       <c r="AO108" s="25" t="n">
         <v>0.0</v>
@@ -40193,7 +40193,7 @@
         <v>5.582033805E9</v>
       </c>
       <c r="I114" s="25" t="n">
-        <v>1.60794331265E11</v>
+        <v>3.584341177E9</v>
       </c>
       <c r="K114" s="25" t="n">
         <v>4.01E9</v>
@@ -40283,7 +40283,7 @@
         <v>1.06066590126E11</v>
       </c>
       <c r="AN114" s="25" t="n">
-        <v>1.60794331265E11</v>
+        <v>3.584341177E9</v>
       </c>
       <c r="AO114" s="25" t="n">
         <v>3.586928139E9</v>
@@ -40321,7 +40321,7 @@
         <v>1.3924050941E10</v>
       </c>
       <c r="I115" s="25" t="n">
-        <v>4.05742681095E11</v>
+        <v>3.94897711095E11</v>
       </c>
       <c r="K115" s="25" t="n">
         <v>5.1207171318E10</v>
@@ -40411,7 +40411,7 @@
         <v>1.98724286277E11</v>
       </c>
       <c r="AN115" s="25" t="n">
-        <v>4.05742681095E11</v>
+        <v>3.94897711095E11</v>
       </c>
       <c r="AO115" s="25" t="n">
         <v>3.97044828303E11</v>
@@ -40577,7 +40577,7 @@
         <v>0.0</v>
       </c>
       <c r="I117" s="25" t="n">
-        <v>1.084497E10</v>
+        <v>0.0</v>
       </c>
       <c r="K117" s="25" t="n">
         <v>0.0</v>
@@ -40667,7 +40667,7 @@
         <v>1.084497E10</v>
       </c>
       <c r="AN117" s="25" t="n">
-        <v>1.084497E10</v>
+        <v>0.0</v>
       </c>
       <c r="AO117" s="25" t="n">
         <v>0.0</v>
@@ -41473,7 +41473,7 @@
         <v>1.835042230189E12</v>
       </c>
       <c r="I124" s="25" t="n">
-        <v>2.04173911964E12</v>
+        <v>2.002833899638E12</v>
       </c>
       <c r="K124" s="25" t="n">
         <v>7.6380449452E10</v>
@@ -41563,7 +41563,7 @@
         <v>5.16896065769E11</v>
       </c>
       <c r="AN124" s="25" t="n">
-        <v>6.40642070578E11</v>
+        <v>6.01736850576E11</v>
       </c>
       <c r="AO124" s="25" t="n">
         <v>5.61130005314E11</v>
@@ -41601,7 +41601,7 @@
         <v>1.835042230189E12</v>
       </c>
       <c r="I125" s="25" t="n">
-        <v>2.04173911964E12</v>
+        <v>1.999151899638E12</v>
       </c>
       <c r="K125" s="25" t="n">
         <v>7.6380449452E10</v>
@@ -41691,7 +41691,7 @@
         <v>5.16896065769E11</v>
       </c>
       <c r="AN125" s="25" t="n">
-        <v>6.40642070578E11</v>
+        <v>5.98054850576E11</v>
       </c>
       <c r="AO125" s="25" t="n">
         <v>5.61130005314E11</v>
@@ -41729,7 +41729,7 @@
         <v>0.0</v>
       </c>
       <c r="I126" s="25" t="n">
-        <v>0.0</v>
+        <v>3.682E9</v>
       </c>
       <c r="K126" s="25" t="n">
         <v>0.0</v>
@@ -41819,7 +41819,7 @@
         <v>0.0</v>
       </c>
       <c r="AN126" s="25" t="n">
-        <v>0.0</v>
+        <v>3.682E9</v>
       </c>
       <c r="AO126" s="25" t="n">
         <v>0.0</v>
@@ -41985,7 +41985,7 @@
         <v>1.06272E7</v>
       </c>
       <c r="I128" s="25" t="n">
-        <v>2.318343226E9</v>
+        <v>1.16263226E8</v>
       </c>
       <c r="K128" s="25" t="n">
         <v>0.0</v>
@@ -42075,7 +42075,7 @@
         <v>3.6595152E7</v>
       </c>
       <c r="AN128" s="25" t="n">
-        <v>2.23762138E9</v>
+        <v>3.554138E7</v>
       </c>
       <c r="AO128" s="25" t="n">
         <v>0.0</v>
@@ -42241,7 +42241,7 @@
         <v>1.06272E7</v>
       </c>
       <c r="I130" s="25" t="n">
-        <v>2.318343226E9</v>
+        <v>9.8088536E7</v>
       </c>
       <c r="K130" s="25" t="n">
         <v>0.0</v>
@@ -42331,7 +42331,7 @@
         <v>3.6595152E7</v>
       </c>
       <c r="AN130" s="25" t="n">
-        <v>2.23762138E9</v>
+        <v>1.736669E7</v>
       </c>
       <c r="AO130" s="25" t="n">
         <v>0.0</v>
@@ -42369,7 +42369,7 @@
         <v>0.0</v>
       </c>
       <c r="I131" s="25" t="n">
-        <v>0.0</v>
+        <v>1.817469E7</v>
       </c>
       <c r="K131" s="25" t="n">
         <v>0.0</v>
@@ -42459,7 +42459,7 @@
         <v>0.0</v>
       </c>
       <c r="AN131" s="25" t="n">
-        <v>0.0</v>
+        <v>1.817469E7</v>
       </c>
       <c r="AO131" s="25" t="n">
         <v>0.0</v>
@@ -42881,7 +42881,7 @@
         <v>1.697817377112E12</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>1.918092390821E12</v>
+        <v>1.877407481444E12</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>4.8117342898E10</v>
@@ -42971,7 +42971,7 @@
         <v>4.99401604641E11</v>
       </c>
       <c r="AN135" s="25" t="n">
-        <v>5.52024555745E11</v>
+        <v>5.15239646367E11</v>
       </c>
       <c r="AO135" s="25" t="n">
         <v>5.20646008784E11</v>
@@ -43009,7 +43009,7 @@
         <v>1.697817377112E12</v>
       </c>
       <c r="I136" s="25" t="n">
-        <v>1.918092390821E12</v>
+        <v>1.672584401008E12</v>
       </c>
       <c r="K136" s="25" t="n">
         <v>4.8117342898E10</v>
@@ -43099,7 +43099,7 @@
         <v>4.99401604641E11</v>
       </c>
       <c r="AN136" s="25" t="n">
-        <v>5.52024555745E11</v>
+        <v>3.10416565931E11</v>
       </c>
       <c r="AO136" s="25" t="n">
         <v>5.20646008784E11</v>
@@ -43137,7 +43137,7 @@
         <v>0.0</v>
       </c>
       <c r="I137" s="25" t="n">
-        <v>0.0</v>
+        <v>2.01710606912E11</v>
       </c>
       <c r="K137" s="25" t="n">
         <v>0.0</v>
@@ -43227,7 +43227,7 @@
         <v>0.0</v>
       </c>
       <c r="AN137" s="25" t="n">
-        <v>0.0</v>
+        <v>2.01710606912E11</v>
       </c>
       <c r="AO137" s="25" t="n">
         <v>0.0</v>
@@ -43265,7 +43265,7 @@
         <v>0.0</v>
       </c>
       <c r="I138" s="25" t="n">
-        <v>0.0</v>
+        <v>3.5045066E7</v>
       </c>
       <c r="K138" s="25" t="n">
         <v>0.0</v>
@@ -43355,7 +43355,7 @@
         <v>0.0</v>
       </c>
       <c r="AN138" s="25" t="n">
-        <v>0.0</v>
+        <v>3.5045066E7</v>
       </c>
       <c r="AO138" s="25" t="n">
         <v>0.0</v>
@@ -43521,7 +43521,7 @@
         <v>0.0</v>
       </c>
       <c r="I140" s="25" t="n">
-        <v>0.0</v>
+        <v>3.077428458E9</v>
       </c>
       <c r="K140" s="25" t="n">
         <v>0.0</v>
@@ -43611,7 +43611,7 @@
         <v>0.0</v>
       </c>
       <c r="AN140" s="25" t="n">
-        <v>0.0</v>
+        <v>3.077428458E9</v>
       </c>
       <c r="AO140" s="25" t="n">
         <v>0.0</v>
@@ -44033,7 +44033,7 @@
         <v>6.801270654E9</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>3.4493302156E10</v>
+        <v>3.4362858595E10</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>4.3523318E7</v>
@@ -44123,7 +44123,7 @@
         <v>3.01755042E8</v>
       </c>
       <c r="AN144" s="25" t="n">
-        <v>1.809824222E9</v>
+        <v>1.679380661E9</v>
       </c>
       <c r="AO144" s="25" t="n">
         <v>3.25106317E8</v>
@@ -44161,7 +44161,7 @@
         <v>0.0</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>0.0</v>
+        <v>2.626979681E9</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>0.0</v>
@@ -44251,7 +44251,7 @@
         <v>-2.053795577E9</v>
       </c>
       <c r="AN145" s="25" t="n">
-        <v>0.0</v>
+        <v>2.626979681E9</v>
       </c>
       <c r="AO145" s="25" t="n">
         <v>0.0</v>
@@ -44289,7 +44289,7 @@
         <v>0.0</v>
       </c>
       <c r="I146" s="25" t="n">
-        <v>0.0</v>
+        <v>1.34540848E8</v>
       </c>
       <c r="K146" s="25" t="n">
         <v>0.0</v>
@@ -44379,7 +44379,7 @@
         <v>0.0</v>
       </c>
       <c r="AN146" s="25" t="n">
-        <v>0.0</v>
+        <v>1.34540848E8</v>
       </c>
       <c r="AO146" s="25" t="n">
         <v>0.0</v>
@@ -44545,7 +44545,7 @@
         <v>0.0</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>0.0</v>
+        <v>2.9792E10</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>0.0</v>
@@ -44635,7 +44635,7 @@
         <v>-2.9792E10</v>
       </c>
       <c r="AN148" s="25" t="n">
-        <v>0.0</v>
+        <v>2.9792E10</v>
       </c>
       <c r="AO148" s="25" t="n">
         <v>0.0</v>
@@ -45185,7 +45185,7 @@
         <v>6.801270654E9</v>
       </c>
       <c r="I153" s="25" t="n">
-        <v>3.4493302156E10</v>
+        <v>1.809338066E9</v>
       </c>
       <c r="K153" s="25" t="n">
         <v>4.3523318E7</v>
@@ -45275,7 +45275,7 @@
         <v>3.2147550619E10</v>
       </c>
       <c r="AN153" s="25" t="n">
-        <v>1.809824222E9</v>
+        <v>-3.0874139868E10</v>
       </c>
       <c r="AO153" s="25" t="n">
         <v>3.25106317E8</v>
@@ -45313,7 +45313,7 @@
         <v>6.6075578211E10</v>
       </c>
       <c r="I154" s="25" t="n">
-        <v>5.8895093954E10</v>
+        <v>5.8128514275E10</v>
       </c>
       <c r="K154" s="25" t="n">
         <v>5.484973215E9</v>
@@ -45403,7 +45403,7 @@
         <v>1.013245128E10</v>
       </c>
       <c r="AN154" s="25" t="n">
-        <v>2.0309295027E10</v>
+        <v>1.9542715348E10</v>
       </c>
       <c r="AO154" s="25" t="n">
         <v>1.9945639933E10</v>
@@ -45441,7 +45441,7 @@
         <v>6.3339959573E10</v>
       </c>
       <c r="I155" s="25" t="n">
-        <v>5.6257794639E10</v>
+        <v>5.6132803809E10</v>
       </c>
       <c r="K155" s="25" t="n">
         <v>0.0</v>
@@ -45531,7 +45531,7 @@
         <v>1.013245128E10</v>
       </c>
       <c r="AN155" s="25" t="n">
-        <v>2.0309295027E10</v>
+        <v>2.0184304197E10</v>
       </c>
       <c r="AO155" s="25" t="n">
         <v>1.9878726991E10</v>
@@ -46209,7 +46209,7 @@
         <v>0.0</v>
       </c>
       <c r="I161" s="25" t="n">
-        <v>0.0</v>
+        <v>8.31313977E8</v>
       </c>
       <c r="K161" s="25" t="n">
         <v>0.0</v>
@@ -46299,7 +46299,7 @@
         <v>0.0</v>
       </c>
       <c r="AN161" s="25" t="n">
-        <v>0.0</v>
+        <v>8.31313977E8</v>
       </c>
       <c r="AO161" s="25" t="n">
         <v>0.0</v>
@@ -46337,7 +46337,7 @@
         <v>2.735618638E9</v>
       </c>
       <c r="I162" s="25" t="n">
-        <v>2.637299315E9</v>
+        <v>1.164396489E9</v>
       </c>
       <c r="K162" s="25" t="n">
         <v>5.484973215E9</v>
@@ -46427,7 +46427,7 @@
         <v>0.0</v>
       </c>
       <c r="AN162" s="25" t="n">
-        <v>0.0</v>
+        <v>-1.472902826E9</v>
       </c>
       <c r="AO162" s="25" t="n">
         <v>6.6912942E7</v>
@@ -46465,7 +46465,7 @@
         <v>0.0</v>
       </c>
       <c r="I163" s="25" t="n">
-        <v>0.0</v>
+        <v>4.89247926948E11</v>
       </c>
       <c r="K163" s="25" t="n">
         <v>1.55515464227E11</v>
@@ -46593,7 +46593,7 @@
         <v>0.0</v>
       </c>
       <c r="I164" s="25" t="n">
-        <v>0.0</v>
+        <v>3.88006834897E11</v>
       </c>
       <c r="K164" s="25" t="n">
         <v>1.22943561783E11</v>
@@ -46721,7 +46721,7 @@
         <v>0.0</v>
       </c>
       <c r="I165" s="25" t="n">
-        <v>0.0</v>
+        <v>3.1091852113E10</v>
       </c>
       <c r="K165" s="25" t="n">
         <v>3.957792047E9</v>
@@ -46849,7 +46849,7 @@
         <v>0.0</v>
       </c>
       <c r="I166" s="25" t="n">
-        <v>0.0</v>
+        <v>6.471702402E9</v>
       </c>
       <c r="K166" s="25" t="n">
         <v>6.188073217E9</v>
@@ -46977,7 +46977,7 @@
         <v>0.0</v>
       </c>
       <c r="I167" s="25" t="n">
-        <v>0.0</v>
+        <v>5.0676762581E10</v>
       </c>
       <c r="K167" s="25" t="n">
         <v>7.502481034E9</v>
@@ -47105,7 +47105,7 @@
         <v>0.0</v>
       </c>
       <c r="I168" s="25" t="n">
-        <v>0.0</v>
+        <v>1.3000774955E10</v>
       </c>
       <c r="K168" s="25" t="n">
         <v>1.4923556146E10</v>

--- a/data/PLP.xlsx
+++ b/data/PLP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>PLP</t>

--- a/data/PLP.xlsx
+++ b/data/PLP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>PLP</t>

--- a/data/PLP.xlsx
+++ b/data/PLP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>PLP</t>
